--- a/EnglishPractice/Слова .xlsx
+++ b/EnglishPractice/Слова .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="601">
   <si>
     <t>Слово</t>
   </si>
@@ -1319,6 +1319,531 @@
   </si>
   <si>
     <t>телёнок</t>
+  </si>
+  <si>
+    <t>shudder </t>
+  </si>
+  <si>
+    <t>ˈʃʌdə</t>
+  </si>
+  <si>
+    <t>дрожь, содрогаться</t>
+  </si>
+  <si>
+    <t>thrill </t>
+  </si>
+  <si>
+    <t>θrɪl</t>
+  </si>
+  <si>
+    <t>трепеть</t>
+  </si>
+  <si>
+    <t>glitter </t>
+  </si>
+  <si>
+    <t>ˈglɪtə</t>
+  </si>
+  <si>
+    <t>блеск, блестеть</t>
+  </si>
+  <si>
+    <t>enormous </t>
+  </si>
+  <si>
+    <t>ɪˈnɔːməs</t>
+  </si>
+  <si>
+    <t>огромный, чудовищный</t>
+  </si>
+  <si>
+    <t>damp </t>
+  </si>
+  <si>
+    <t>dæmp</t>
+  </si>
+  <si>
+    <t>сырость, сырой</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>heʤ</t>
+  </si>
+  <si>
+    <t>изгородь</t>
+  </si>
+  <si>
+    <t>wicket-gate</t>
+  </si>
+  <si>
+    <t>ˈwɪkɪt-geɪt</t>
+  </si>
+  <si>
+    <t>калитка</t>
+  </si>
+  <si>
+    <t>discern </t>
+  </si>
+  <si>
+    <t>dɪˈsɜːn</t>
+  </si>
+  <si>
+    <t>распознавать, различать</t>
+  </si>
+  <si>
+    <t>immense</t>
+  </si>
+  <si>
+    <t>ɪˈmens</t>
+  </si>
+  <si>
+    <t>необъятный</t>
+  </si>
+  <si>
+    <t>smudge</t>
+  </si>
+  <si>
+    <t>smʌdʒ</t>
+  </si>
+  <si>
+    <t>размазывать</t>
+  </si>
+  <si>
+    <t>reconcile </t>
+  </si>
+  <si>
+    <t>ˈrekənsaɪl</t>
+  </si>
+  <si>
+    <t>примирять, согласовывать</t>
+  </si>
+  <si>
+    <t>correspond </t>
+  </si>
+  <si>
+    <t>kɒrɪsˈpɒnd</t>
+  </si>
+  <si>
+    <t>соответсвовать, совпадать</t>
+  </si>
+  <si>
+    <t>farrier </t>
+  </si>
+  <si>
+    <t>ˈfærɪə</t>
+  </si>
+  <si>
+    <t>кузнец</t>
+  </si>
+  <si>
+    <t>apparition </t>
+  </si>
+  <si>
+    <t>æpəˈrɪʃn</t>
+  </si>
+  <si>
+    <t>видение, призрак</t>
+  </si>
+  <si>
+    <t>hitherto</t>
+  </si>
+  <si>
+    <t>hɪðəˈtuː</t>
+  </si>
+  <si>
+    <t>до сих пор</t>
+  </si>
+  <si>
+    <t>confine</t>
+  </si>
+  <si>
+    <t>kənˈfaɪn</t>
+  </si>
+  <si>
+    <t>ограничивать, держать в заперти, придерживаться</t>
+  </si>
+  <si>
+    <t>tug </t>
+  </si>
+  <si>
+    <t>tʌg</t>
+  </si>
+  <si>
+    <t>тащить, буксир(овать)</t>
+  </si>
+  <si>
+    <t>trustee </t>
+  </si>
+  <si>
+    <t>trʌsˈtiː</t>
+  </si>
+  <si>
+    <t>попечитель, доверенное лицо</t>
+  </si>
+  <si>
+    <t>claimant</t>
+  </si>
+  <si>
+    <t>ˈkleɪmənt</t>
+  </si>
+  <si>
+    <t>истец, претендент</t>
+  </si>
+  <si>
+    <t>kinsman </t>
+  </si>
+  <si>
+    <t>ˈkɪnzmən</t>
+  </si>
+  <si>
+    <t>кровный родственник</t>
+  </si>
+  <si>
+    <t>bleak </t>
+  </si>
+  <si>
+    <t>bliːk</t>
+  </si>
+  <si>
+    <t>мрачный</t>
+  </si>
+  <si>
+    <t>sway </t>
+  </si>
+  <si>
+    <t>sweɪ</t>
+  </si>
+  <si>
+    <t>колебать(ся)</t>
+  </si>
+  <si>
+    <t>abode </t>
+  </si>
+  <si>
+    <t>əˈbəʊd</t>
+  </si>
+  <si>
+    <t>жилище, местопребывание</t>
+  </si>
+  <si>
+    <t>inconceivable </t>
+  </si>
+  <si>
+    <t>ɪnkənˈsiːvəbl</t>
+  </si>
+  <si>
+    <t>невообразимый</t>
+  </si>
+  <si>
+    <t>flippantly </t>
+  </si>
+  <si>
+    <t>ˈflɪpəntlɪ</t>
+  </si>
+  <si>
+    <t>легкомысленно</t>
+  </si>
+  <si>
+    <t>inward </t>
+  </si>
+  <si>
+    <t>внутренний</t>
+  </si>
+  <si>
+    <t>ˈɪnwəd</t>
+  </si>
+  <si>
+    <t>congenial </t>
+  </si>
+  <si>
+    <t>kənˈʤiːnɪəl</t>
+  </si>
+  <si>
+    <t>подходящий, близкий</t>
+  </si>
+  <si>
+    <t>splendid </t>
+  </si>
+  <si>
+    <t>ˈsplendɪd</t>
+  </si>
+  <si>
+    <t>превосходный, великолепный</t>
+  </si>
+  <si>
+    <t>shag </t>
+  </si>
+  <si>
+    <t>ʃæg</t>
+  </si>
+  <si>
+    <t>махорка</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>səbˈmɪt</t>
+  </si>
+  <si>
+    <t>пред(о)ставить, подчиняться</t>
+  </si>
+  <si>
+    <t>seclusion </t>
+  </si>
+  <si>
+    <t>sɪˈkluːʒən</t>
+  </si>
+  <si>
+    <t>уединение</t>
+  </si>
+  <si>
+    <t>acrid </t>
+  </si>
+  <si>
+    <t>fume(s)</t>
+  </si>
+  <si>
+    <t>fjuːm(z)</t>
+  </si>
+  <si>
+    <t>пар(ы), дым, выхлоп, испарение</t>
+  </si>
+  <si>
+    <t>ˈækrɪd</t>
+  </si>
+  <si>
+    <t>резкий, едкий</t>
+  </si>
+  <si>
+    <t>haze </t>
+  </si>
+  <si>
+    <t>heɪz</t>
+  </si>
+  <si>
+    <t>помутнение, дымка</t>
+  </si>
+  <si>
+    <t>vague </t>
+  </si>
+  <si>
+    <t>смутный</t>
+  </si>
+  <si>
+    <t>veɪg</t>
+  </si>
+  <si>
+    <t>clay </t>
+  </si>
+  <si>
+    <t>kleɪ</t>
+  </si>
+  <si>
+    <t>глина</t>
+  </si>
+  <si>
+    <t>thick </t>
+  </si>
+  <si>
+    <t>θɪk</t>
+  </si>
+  <si>
+    <t>толстый, густой, глупый</t>
+  </si>
+  <si>
+    <t>intolerable </t>
+  </si>
+  <si>
+    <t>ɪnˈtɒl(ə)rəb(ə)l</t>
+  </si>
+  <si>
+    <t>невыносимый, недопустимый</t>
+  </si>
+  <si>
+    <t>bewilder</t>
+  </si>
+  <si>
+    <t>bɪˈwɪl.də</t>
+  </si>
+  <si>
+    <t>озадачивать</t>
+  </si>
+  <si>
+    <t>dɪˈlaɪt</t>
+  </si>
+  <si>
+    <t>восторг, восхищение</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>immaculate</t>
+  </si>
+  <si>
+    <t>gloss </t>
+  </si>
+  <si>
+    <t>glɒs</t>
+  </si>
+  <si>
+    <t>блеск, глянец</t>
+  </si>
+  <si>
+    <t>безупречно чистый</t>
+  </si>
+  <si>
+    <t>ɪˈmæk.jə.lət</t>
+  </si>
+  <si>
+    <t>fixture </t>
+  </si>
+  <si>
+    <t>ˈfɪksʧə</t>
+  </si>
+  <si>
+    <t>приспособление</t>
+  </si>
+  <si>
+    <t>contrary </t>
+  </si>
+  <si>
+    <t>ˈkɒntrərɪ</t>
+  </si>
+  <si>
+    <t>противоположность, наоборот</t>
+  </si>
+  <si>
+    <t>flatter</t>
+  </si>
+  <si>
+    <t>ˈflætə</t>
+  </si>
+  <si>
+    <t>льстить</t>
+  </si>
+  <si>
+    <t>concern </t>
+  </si>
+  <si>
+    <t>kənˈsɜːn</t>
+  </si>
+  <si>
+    <t>беспокойство, касаться, волновать</t>
+  </si>
+  <si>
+    <t>воспринимать</t>
+  </si>
+  <si>
+    <t>clump </t>
+  </si>
+  <si>
+    <t>klʌmp</t>
+  </si>
+  <si>
+    <t>группа</t>
+  </si>
+  <si>
+    <t>hamlet </t>
+  </si>
+  <si>
+    <t>ˈhæmlɪt</t>
+  </si>
+  <si>
+    <t>деревушка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convict </t>
+  </si>
+  <si>
+    <t>ˈkɒnvɪkt</t>
+  </si>
+  <si>
+    <t>каторжный, осужд(ать/енный)</t>
+  </si>
+  <si>
+    <t>incline</t>
+  </si>
+  <si>
+    <t>ɪnˈklaɪn</t>
+  </si>
+  <si>
+    <t>склоняться (в суждениях)</t>
+  </si>
+  <si>
+    <t>outset</t>
+  </si>
+  <si>
+    <t>ˈaʊtset</t>
+  </si>
+  <si>
+    <t>начальный этап</t>
+  </si>
+  <si>
+    <t>surmise </t>
+  </si>
+  <si>
+    <t>səˈmaɪz</t>
+  </si>
+  <si>
+    <t>предположение</t>
+  </si>
+  <si>
+    <t>distinction </t>
+  </si>
+  <si>
+    <t>dɪsˈtɪŋkʃn</t>
+  </si>
+  <si>
+    <t>различие</t>
+  </si>
+  <si>
+    <t>inclement</t>
+  </si>
+  <si>
+    <t>ɪnˈklemənt</t>
+  </si>
+  <si>
+    <t>суровый, ненастный</t>
+  </si>
+  <si>
+    <t>coherent </t>
+  </si>
+  <si>
+    <t>kəʊˈhɪərənt</t>
+  </si>
+  <si>
+    <t>понятный, согласованный</t>
+  </si>
+  <si>
+    <t>violin</t>
+  </si>
+  <si>
+    <t>vaɪəˈlɪn</t>
+  </si>
+  <si>
+    <t>скрипка</t>
+  </si>
+  <si>
+    <t>postpone </t>
+  </si>
+  <si>
+    <t>pə(ʊ)ˈspəʊn</t>
+  </si>
+  <si>
+    <t>отклатывать, переносить</t>
+  </si>
+  <si>
+    <t>dressing-gown</t>
+  </si>
+  <si>
+    <t>ˈdresɪŋ gaʊn</t>
+  </si>
+  <si>
+    <t>халат</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +2133,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3184,289 +3709,918 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="4"/>
+      <c r="A143" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="4"/>
+      <c r="A144" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="4"/>
+      <c r="A145" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="4"/>
+      <c r="A146" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4"/>
+      <c r="A147" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="4"/>
+      <c r="A148" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="4"/>
+      <c r="A149" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="4"/>
+      <c r="A150" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="4"/>
+      <c r="A151" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="4"/>
+      <c r="A152" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="4"/>
+      <c r="A153" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="4"/>
+      <c r="A154" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="4"/>
+      <c r="A155" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="4"/>
+      <c r="A156" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="4"/>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="4"/>
+      <c r="A157" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="4"/>
+      <c r="A159" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="4"/>
+      <c r="A160" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="4"/>
+      <c r="A161" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="4"/>
+      <c r="A162" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
+      <c r="A163" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="4"/>
+      <c r="A164" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="4"/>
+      <c r="A165" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="4"/>
+      <c r="A166" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="4"/>
+      <c r="A167" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="4"/>
+      <c r="A168" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="4"/>
+      <c r="A169" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="4"/>
+      <c r="A170" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="4"/>
+      <c r="A171" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="4"/>
+      <c r="A172" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="4"/>
+      <c r="A173" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="4"/>
-    </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="4"/>
+      <c r="A174" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="4"/>
+      <c r="A176" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="4"/>
+      <c r="A177" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="4"/>
+      <c r="A178" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="4"/>
+      <c r="A179" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="4"/>
+      <c r="A180" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="4"/>
+      <c r="A181" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="4"/>
+      <c r="A182" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="4"/>
+      <c r="A183" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="4"/>
+      <c r="A184" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="4"/>
+      <c r="A185" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="4"/>
+      <c r="A186" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="4"/>
-    </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="4"/>
+      <c r="A187" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="4"/>
+      <c r="A189" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="4"/>
+      <c r="A190" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="4"/>
+      <c r="A191" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="4"/>
+      <c r="A192" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="4"/>
+      <c r="A193" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="4"/>
+      <c r="A194" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="4"/>
+      <c r="A195" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="4"/>
+      <c r="A196" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="4"/>
+      <c r="A197" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="4"/>
+      <c r="A198" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="4"/>
+      <c r="A199" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+    </row>
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+    </row>
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EnglishPractice/Слова .xlsx
+++ b/EnglishPractice/Слова .xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="606">
   <si>
     <t>Слово</t>
   </si>
@@ -1845,12 +1846,27 @@
   <si>
     <t>халат</t>
   </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>конверт</t>
+  </si>
+  <si>
+    <t>expedient </t>
+  </si>
+  <si>
+    <t>ɪkˈspiːdɪənt</t>
+  </si>
+  <si>
+    <t>целесообразный, выгодный</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1884,6 +1900,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1905,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1915,6 +1938,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2135,8 +2159,8 @@
   </sheetPr>
   <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4626,4 +4650,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>